--- a/biology/Médecine/Encéphalomalacie/Encéphalomalacie.xlsx
+++ b/biology/Médecine/Encéphalomalacie/Encéphalomalacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalomalacie</t>
+          <t>Encéphalomalacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, l'encéphalomalacie est un type d'accident vasculaire cérébral qui est un déficit neurologique soudain, d'origine vasculaire causé par un infarctus au niveau du cerveau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalomalacie</t>
+          <t>Encéphalomalacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Sémantique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'encéphalomalacie se nomme également ramollissement cérébral. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalomalacie</t>
+          <t>Encéphalomalacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Catégories</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue trois variétés de ramollissement qui se distinguent par leur couleur : rouge, jaune et blanc.
 Ces variétés représentant les différentes étapes du processus morbide.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalomalacie</t>
+          <t>Encéphalomalacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand il est constaté chez l'embryon ou le nouveau-né, il peut parfois être dû à un Herpès congénital acquis in utero[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand il est constaté chez l'embryon ou le nouveau-né, il peut parfois être dû à un Herpès congénital acquis in utero.
 </t>
         </is>
       </c>
